--- a/public/admin/documentos/gestionadministrativa/planeacionadministrativayoperativa/01 For TAFS 01 Apoyo Fin.xlsx
+++ b/public/admin/documentos/gestionadministrativa/planeacionadministrativayoperativa/01 For TAFS 01 Apoyo Fin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IV TRIMESTRE 2017\DOCUMENTOS A ESTANDARIZAR\ESTANDARIZAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A06E87-A1C6-4E1C-AAE4-61E5C076CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDADES PECUARIAS" sheetId="1" r:id="rId1"/>
@@ -96,12 +97,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-80A]General"/>
-    <numFmt numFmtId="167" formatCode="[$-240A]General"/>
+    <numFmt numFmtId="165" formatCode="[$-80A]General"/>
+    <numFmt numFmtId="166" formatCode="[$-240A]General"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -576,28 +577,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -636,18 +637,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,87 +712,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
-    <cellStyle name="Millares 2" xfId="9"/>
-    <cellStyle name="Millares 2 2" xfId="12"/>
-    <cellStyle name="Millares 2 2 2" xfId="18"/>
-    <cellStyle name="Millares 2 2 3" xfId="22"/>
-    <cellStyle name="Millares 2 3" xfId="14"/>
-    <cellStyle name="Millares 2 3 2" xfId="19"/>
-    <cellStyle name="Millares 2 4" xfId="15"/>
-    <cellStyle name="Millares 2 5" xfId="20"/>
-    <cellStyle name="Moneda 2" xfId="11"/>
-    <cellStyle name="Moneda 2 2" xfId="21"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Millares 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Millares 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Millares 2 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Millares 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Millares 2 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Millares 2 4" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Millares 2 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Moneda 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Normal 2 2" xfId="24"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 3 2" xfId="13"/>
-    <cellStyle name="Normal 3 3" xfId="16"/>
-    <cellStyle name="Normal 4" xfId="2"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 5 2" xfId="17"/>
-    <cellStyle name="Normal 5 3" xfId="10"/>
-    <cellStyle name="Normal 6" xfId="5"/>
-    <cellStyle name="Normal 6 2" xfId="7"/>
-    <cellStyle name="Normal 7" xfId="6"/>
-    <cellStyle name="Normal 8" xfId="23"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 5 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 8" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,7 +770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -813,7 +820,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1130,11 +1143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1150,56 +1163,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
@@ -1213,7 +1226,7 @@
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -1236,10 +1249,10 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18" t="s">
         <v>7</v>
@@ -1249,13 +1262,13 @@
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="6"/>
@@ -1266,9 +1279,9 @@
       <c r="A10" s="20">
         <v>1</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1277,9 +1290,9 @@
       <c r="A11" s="20">
         <v>2</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1288,7 +1301,7 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="9"/>
       <c r="D12" s="21"/>
     </row>
@@ -1296,7 +1309,7 @@
       <c r="A13" s="20">
         <v>4</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="5"/>
       <c r="D13" s="22"/>
     </row>
@@ -1304,7 +1317,7 @@
       <c r="A14" s="20">
         <v>5</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="1"/>
       <c r="D14" s="22"/>
     </row>
@@ -1312,7 +1325,7 @@
       <c r="A15" s="20">
         <v>6</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="1"/>
       <c r="D15" s="22"/>
     </row>
@@ -1320,7 +1333,7 @@
       <c r="A16" s="20">
         <v>7</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="5"/>
       <c r="D16" s="22"/>
     </row>
@@ -1328,7 +1341,7 @@
       <c r="A17" s="20">
         <v>8</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="1"/>
       <c r="D17" s="22"/>
     </row>
@@ -1336,7 +1349,7 @@
       <c r="A18" s="20">
         <v>9</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
     </row>
@@ -1344,7 +1357,7 @@
       <c r="A19" s="20">
         <v>10</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
     </row>
@@ -1352,7 +1365,7 @@
       <c r="A20" s="20">
         <v>12</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1375,7 @@
       <c r="A21" s="20">
         <v>13</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="9"/>
@@ -1372,7 +1385,7 @@
       <c r="A22" s="20">
         <v>14</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1"/>
       <c r="D22" s="22"/>
     </row>
@@ -1380,7 +1393,7 @@
       <c r="A23" s="20">
         <v>15</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="5"/>
       <c r="D23" s="22"/>
     </row>
@@ -1388,7 +1401,7 @@
       <c r="A24" s="20">
         <v>16</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="5"/>
       <c r="D24" s="22"/>
     </row>
@@ -1396,7 +1409,7 @@
       <c r="A25" s="20">
         <v>17</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="1"/>
       <c r="D25" s="22"/>
     </row>
@@ -1404,7 +1417,7 @@
       <c r="A26" s="20">
         <v>18</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="1"/>
       <c r="D26" s="22"/>
     </row>
@@ -1412,7 +1425,7 @@
       <c r="A27" s="20">
         <v>19</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
     </row>
@@ -1420,7 +1433,7 @@
       <c r="A28" s="20">
         <v>20</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="10"/>
       <c r="D28" s="23"/>
     </row>
@@ -1428,7 +1441,7 @@
       <c r="A29" s="20">
         <v>21</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="11"/>
       <c r="D29" s="21"/>
     </row>
@@ -1436,7 +1449,7 @@
       <c r="A30" s="20">
         <v>22</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="1"/>
       <c r="D30" s="22"/>
     </row>
@@ -1444,7 +1457,7 @@
       <c r="A31" s="20">
         <v>23</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="1"/>
       <c r="D31" s="22"/>
     </row>
@@ -1452,7 +1465,7 @@
       <c r="A32" s="20">
         <v>24</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1"/>
       <c r="D32" s="22"/>
     </row>
@@ -1460,7 +1473,7 @@
       <c r="A33" s="20">
         <v>25</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="1"/>
       <c r="D33" s="22"/>
     </row>
@@ -1468,7 +1481,7 @@
       <c r="A34" s="20">
         <v>26</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="1"/>
       <c r="D34" s="22"/>
     </row>
@@ -1476,7 +1489,7 @@
       <c r="A35" s="20">
         <v>27</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="1"/>
       <c r="D35" s="22"/>
     </row>
@@ -1484,7 +1497,7 @@
       <c r="A36" s="20">
         <v>28</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="12"/>
       <c r="D36" s="23"/>
     </row>
@@ -1492,7 +1505,7 @@
       <c r="A37" s="20">
         <v>29</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="9"/>
       <c r="D37" s="21"/>
     </row>
@@ -1500,7 +1513,7 @@
       <c r="A38" s="20">
         <v>30</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="1"/>
       <c r="D38" s="22"/>
     </row>
@@ -1508,7 +1521,7 @@
       <c r="A39" s="20">
         <v>31</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="1"/>
       <c r="D39" s="22"/>
     </row>
@@ -1516,7 +1529,7 @@
       <c r="A40" s="20">
         <v>32</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="5"/>
       <c r="D40" s="22"/>
     </row>
@@ -1524,7 +1537,7 @@
       <c r="A41" s="20">
         <v>33</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="1"/>
       <c r="D41" s="22"/>
     </row>
@@ -1532,7 +1545,7 @@
       <c r="A42" s="20">
         <v>34</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="1"/>
       <c r="D42" s="22"/>
     </row>
@@ -1540,7 +1553,7 @@
       <c r="A43" s="20">
         <v>35</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="5"/>
       <c r="D43" s="22"/>
     </row>
@@ -1548,7 +1561,7 @@
       <c r="A44" s="20">
         <v>36</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="10"/>
       <c r="D44" s="23"/>
     </row>
@@ -1556,7 +1569,7 @@
       <c r="A45" s="20">
         <v>37</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="9"/>
       <c r="D45" s="21"/>
     </row>
@@ -1564,7 +1577,7 @@
       <c r="A46" s="20">
         <v>38</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="1"/>
       <c r="D46" s="22"/>
     </row>
@@ -1572,7 +1585,7 @@
       <c r="A47" s="20">
         <v>39</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="1"/>
       <c r="D47" s="22"/>
     </row>
@@ -1580,7 +1593,7 @@
       <c r="A48" s="20">
         <v>40</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="5"/>
       <c r="D48" s="22"/>
     </row>
@@ -1588,7 +1601,7 @@
       <c r="A49" s="20">
         <v>41</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="1"/>
       <c r="D49" s="22"/>
     </row>
@@ -1596,7 +1609,7 @@
       <c r="A50" s="20">
         <v>42</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="1"/>
       <c r="D50" s="22"/>
     </row>
@@ -1604,7 +1617,7 @@
       <c r="A51" s="20">
         <v>43</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="5"/>
       <c r="D51" s="22"/>
     </row>
@@ -1612,7 +1625,7 @@
       <c r="A52" s="20">
         <v>44</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="12"/>
       <c r="D52" s="23"/>
     </row>
@@ -1620,7 +1633,7 @@
       <c r="A53" s="20">
         <v>45</v>
       </c>
-      <c r="B53" s="27"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="9"/>
       <c r="D53" s="21"/>
     </row>
@@ -1628,7 +1641,7 @@
       <c r="A54" s="20">
         <v>46</v>
       </c>
-      <c r="B54" s="28"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="1"/>
       <c r="D54" s="22"/>
     </row>
@@ -1636,7 +1649,7 @@
       <c r="A55" s="20">
         <v>47</v>
       </c>
-      <c r="B55" s="28"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="5"/>
       <c r="D55" s="22"/>
     </row>
@@ -1644,7 +1657,7 @@
       <c r="A56" s="20">
         <v>48</v>
       </c>
-      <c r="B56" s="28"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="1"/>
       <c r="D56" s="22"/>
     </row>
@@ -1652,7 +1665,7 @@
       <c r="A57" s="20">
         <v>49</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="1"/>
       <c r="D57" s="22"/>
     </row>
@@ -1660,7 +1673,7 @@
       <c r="A58" s="20">
         <v>50</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="1"/>
       <c r="D58" s="22"/>
     </row>
@@ -1668,7 +1681,7 @@
       <c r="A59" s="20">
         <v>51</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
     </row>
@@ -1676,7 +1689,7 @@
       <c r="A60" s="20">
         <v>52</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
     </row>
@@ -1684,7 +1697,7 @@
       <c r="A61" s="20">
         <v>53</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="10"/>
       <c r="D61" s="23"/>
     </row>
@@ -1692,7 +1705,7 @@
       <c r="A62" s="20">
         <v>55</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="9"/>
       <c r="D62" s="21"/>
     </row>
@@ -1700,7 +1713,7 @@
       <c r="A63" s="20">
         <v>56</v>
       </c>
-      <c r="B63" s="31"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="1"/>
       <c r="D63" s="22"/>
     </row>
@@ -1708,7 +1721,7 @@
       <c r="A64" s="20">
         <v>57</v>
       </c>
-      <c r="B64" s="31"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="1"/>
       <c r="D64" s="22"/>
     </row>
@@ -1716,7 +1729,7 @@
       <c r="A65" s="20">
         <v>58</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="5"/>
       <c r="D65" s="22"/>
     </row>
@@ -1724,7 +1737,7 @@
       <c r="A66" s="24">
         <v>59</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="10"/>
       <c r="D66" s="23"/>
     </row>
@@ -1748,13 +1761,13 @@
       <c r="A69" s="7">
         <v>62</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
+      <c r="D69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
@@ -1775,13 +1788,13 @@
       <c r="A71" s="7">
         <v>64</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
+      <c r="D71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
     </row>
     <row r="72" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
@@ -2005,8 +2018,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B9:D9"/>
+  <autoFilter ref="B9:D9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="18">
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C69:D69"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B37:B44"/>
     <mergeCell ref="B29:B36"/>
@@ -2018,13 +2038,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="B21:B28"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C69:D69"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
